--- a/Ebay/ExcelFile/Items.xlsx
+++ b/Ebay/ExcelFile/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuasmba/Documents/amazon/Web-Automation-Framkework/Ebay/ExcelFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF24F216-00C5-C546-8E9B-617C079437AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA8B9EF-B316-C64F-9113-1F475BAB2885}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{50B6BE45-C369-104E-AEE4-9BF81240C849}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>tool set</t>
   </si>
   <si>
-    <t xml:space="preserve"> car parts</t>
+    <t>iphone XSMax</t>
   </si>
   <si>
-    <t>iphone XSMax</t>
+    <t>car parts</t>
   </si>
 </sst>
 </file>
@@ -390,15 +390,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E9DDF6-A831-3947-96DC-DF65CC305A5B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -413,7 +411,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
